--- a/resources/Commands.xlsx
+++ b/resources/Commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\KN-Spectrum_E-moto\.github\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\Summertime Project\.github\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F849A6F9-3D7A-43E1-8F61-69401219C47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC79682-F1DA-4393-8435-4B45465F9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Commands should be designed as if robot internal logic structure was unknown (blackbox)</t>
+    <t>Commands should be designed as if robot internal logic structure was unknown (blackbox) and they will be transmited on aplication layer</t>
   </si>
 </sst>
 </file>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,7 +363,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -376,10 +376,38 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
